--- a/data/scheduling_DNN/predict/0.1/result1.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result1.xlsx
@@ -570,10 +570,10 @@
         <v>1.469604969024658</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.9666704535484314</v>
       </c>
       <c r="W2" t="n">
-        <v>1.188647985458374</v>
+        <v>0.2529431283473969</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9576139450073242</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.8803750276565552</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1640279293060303</v>
+        <v>0.005965850315988064</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9052128791809082</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.4691153168678284</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2198731601238251</v>
+        <v>0.1901810765266418</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9127449989318848</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.5400593876838684</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1911577582359314</v>
+        <v>0.1388945579528809</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8934659957885742</v>
       </c>
       <c r="V6" t="n">
-        <v>0.57613205909729</v>
+        <v>0.5306718945503235</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1007008254528046</v>
+        <v>0.1316195577383041</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8803379535675049</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.8761686086654663</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0656374990940094</v>
+        <v>1.73834378074389e-05</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9409048557281494</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.4694133400917053</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1003623157739639</v>
+        <v>0.2223042547702789</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8936929702758789</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.499612033367157</v>
       </c>
       <c r="W9" t="n">
-        <v>0.224043533205986</v>
+        <v>0.1552997827529907</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.881087064743042</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.5391258597373962</v>
       </c>
       <c r="W10" t="n">
-        <v>0.168340802192688</v>
+        <v>0.1169374659657478</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8740129470825195</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.9184791445732117</v>
       </c>
       <c r="W11" t="n">
-        <v>0.04571424424648285</v>
+        <v>0.001977242762222886</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.9498248100280762</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.5367502570152283</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2639974355697632</v>
+        <v>0.1706305891275406</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9320590496063232</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.9119758009910583</v>
       </c>
       <c r="W13" t="n">
-        <v>0.246053010225296</v>
+        <v>0.0004033368604723364</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9392838478088379</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.5329543948173523</v>
       </c>
       <c r="W14" t="n">
-        <v>0.214467391371727</v>
+        <v>0.1651036292314529</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9032180309295654</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.4944607615470886</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1227225884795189</v>
+        <v>0.1670825034379959</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.9470698833465576</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.5307286381721497</v>
       </c>
       <c r="W16" t="n">
-        <v>0.2394455671310425</v>
+        <v>0.1733400374650955</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8911538124084473</v>
       </c>
       <c r="V17" t="n">
-        <v>0.551541268825531</v>
+        <v>0.8848410844802856</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1153366789221764</v>
+        <v>3.985053263022564e-05</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8763668537139893</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.4839150309562683</v>
       </c>
       <c r="W18" t="n">
-        <v>0.2444862872362137</v>
+        <v>0.1540184319019318</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8848881721496582</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.4889305830001831</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1429834365844727</v>
+        <v>0.1567824184894562</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9042701721191406</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.5307949781417847</v>
       </c>
       <c r="W20" t="n">
-        <v>0.06683974713087082</v>
+        <v>0.1394837200641632</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.9186079502105713</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.5744211077690125</v>
       </c>
       <c r="W21" t="n">
-        <v>0.08444417268037796</v>
+        <v>0.1184645816683769</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5461130142211914</v>
       </c>
       <c r="V22" t="n">
-        <v>0.816550612449646</v>
+        <v>0.5154713988304138</v>
       </c>
       <c r="W22" t="n">
-        <v>0.07313649356365204</v>
+        <v>0.000938908604439348</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5479838848114014</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.9450955986976624</v>
       </c>
       <c r="W23" t="n">
-        <v>0.00196194788441062</v>
+        <v>0.1576977074146271</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5971319675445557</v>
       </c>
       <c r="V24" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.8813828825950623</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0005742355715483427</v>
+        <v>0.08079858124256134</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5396850109100342</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.4879076480865479</v>
       </c>
       <c r="W25" t="n">
-        <v>0.007296115159988403</v>
+        <v>0.002680895384401083</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5460989475250244</v>
       </c>
       <c r="V26" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.4857904314994812</v>
       </c>
       <c r="W26" t="n">
-        <v>0.02682174183428288</v>
+        <v>0.00363711710087955</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5273451805114746</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.8984929323196411</v>
       </c>
       <c r="W27" t="n">
-        <v>0.001998966326937079</v>
+        <v>0.137750655412674</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5345249176025391</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.9137516617774963</v>
       </c>
       <c r="W28" t="n">
-        <v>0.07697729021310806</v>
+        <v>0.1438129246234894</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5431008338928223</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.5143523812294006</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0006543510826304555</v>
+        <v>0.0008264735224656761</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5520429611206055</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.4909155368804932</v>
       </c>
       <c r="W30" t="n">
-        <v>0.006505446508526802</v>
+        <v>0.003736562095582485</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5254662036895752</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.5306424498558044</v>
       </c>
       <c r="W31" t="n">
-        <v>0.009705188684165478</v>
+        <v>2.67935247393325e-05</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5756039619445801</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.5307735800743103</v>
       </c>
       <c r="W32" t="n">
-        <v>9.270523150917143e-05</v>
+        <v>0.002009763149544597</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5258669853210449</v>
       </c>
       <c r="V33" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.5737619400024414</v>
       </c>
       <c r="W33" t="n">
-        <v>0.003807024331763387</v>
+        <v>0.002293926663696766</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5430159568786621</v>
       </c>
       <c r="V34" t="n">
-        <v>0.435836523771286</v>
+        <v>0.9818480014801025</v>
       </c>
       <c r="W34" t="n">
-        <v>0.01148743089288473</v>
+        <v>0.1925735622644424</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5377190113067627</v>
       </c>
       <c r="V35" t="n">
-        <v>0.473930835723877</v>
+        <v>0.4842909574508667</v>
       </c>
       <c r="W35" t="n">
-        <v>0.004068931564688683</v>
+        <v>0.002854557009413838</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5283079147338867</v>
       </c>
       <c r="V36" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.5425055027008057</v>
       </c>
       <c r="W36" t="n">
-        <v>0.008593246340751648</v>
+        <v>0.0002015714999288321</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5266439914703369</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.4712913036346436</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0006194797460921109</v>
+        <v>0.003063919954001904</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5255799293518066</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.9350913166999817</v>
       </c>
       <c r="W38" t="n">
-        <v>0.004613138269633055</v>
+        <v>0.1676995754241943</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5257630348205566</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.513805091381073</v>
       </c>
       <c r="W39" t="n">
-        <v>0.008041564375162125</v>
+        <v>0.0001429924159310758</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5748438835144043</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.5031780004501343</v>
       </c>
       <c r="W40" t="n">
-        <v>0.01433124765753746</v>
+        <v>0.005135998595505953</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5403299331665039</v>
       </c>
       <c r="V41" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.9011596441268921</v>
       </c>
       <c r="W41" t="n">
-        <v>0.006556689273566008</v>
+        <v>0.1301980763673782</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4217770099639893</v>
       </c>
       <c r="V42" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.9426830410957336</v>
       </c>
       <c r="W42" t="n">
-        <v>0.01698611676692963</v>
+        <v>0.2713430821895599</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4192249774932861</v>
       </c>
       <c r="V43" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.941952109336853</v>
       </c>
       <c r="W43" t="n">
-        <v>0.1577461510896683</v>
+        <v>0.2732436656951904</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3973371982574463</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.5094512104988098</v>
       </c>
       <c r="W44" t="n">
-        <v>0.01128618512302637</v>
+        <v>0.0125695513561368</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.396845817565918</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.5742809772491455</v>
       </c>
       <c r="W45" t="n">
-        <v>0.008087008260190487</v>
+        <v>0.0314832367002964</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3973300457000732</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.5742455124855042</v>
       </c>
       <c r="W46" t="n">
-        <v>0.003169399686157703</v>
+        <v>0.03129908069968224</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.40260910987854</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.8751316070556641</v>
       </c>
       <c r="W47" t="n">
-        <v>0.001123783062212169</v>
+        <v>0.2232775092124939</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4107708930969238</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.5342154502868652</v>
       </c>
       <c r="W48" t="n">
-        <v>0.06135386228561401</v>
+        <v>0.0152385588735342</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3985190391540527</v>
       </c>
       <c r="V49" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.5040863752365112</v>
       </c>
       <c r="W49" t="n">
-        <v>0.1142835319042206</v>
+        <v>0.01114446204155684</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3982610702514648</v>
       </c>
       <c r="V50" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.5027782917022705</v>
       </c>
       <c r="W50" t="n">
-        <v>0.0755455419421196</v>
+        <v>0.01092384941875935</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3960020542144775</v>
       </c>
       <c r="V51" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.9313493371009827</v>
       </c>
       <c r="W51" t="n">
-        <v>0.08293190598487854</v>
+        <v>0.2865967154502869</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3978888988494873</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.5144895315170288</v>
       </c>
       <c r="W52" t="n">
-        <v>0.02903100848197937</v>
+        <v>0.01359570771455765</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3950610160827637</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.5032495856285095</v>
       </c>
       <c r="W53" t="n">
-        <v>0.04392899945378304</v>
+        <v>0.01170476619154215</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3979020118713379</v>
       </c>
       <c r="V54" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.5889896750450134</v>
       </c>
       <c r="W54" t="n">
-        <v>0.04891372099518776</v>
+        <v>0.03651449456810951</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3981389999389648</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.9872207641601562</v>
       </c>
       <c r="W55" t="n">
-        <v>0.02798268385231495</v>
+        <v>0.3470173180103302</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3943989276885986</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.9486237764358521</v>
       </c>
       <c r="W56" t="n">
-        <v>0.02442985959351063</v>
+        <v>0.3071651756763458</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3950021266937256</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.5382370948791504</v>
       </c>
       <c r="W57" t="n">
-        <v>0.01124013401567936</v>
+        <v>0.02051625587046146</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.4145150184631348</v>
       </c>
       <c r="V58" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.9104913473129272</v>
       </c>
       <c r="W58" t="n">
-        <v>0.04460372775793076</v>
+        <v>0.245992511510849</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3956568241119385</v>
       </c>
       <c r="V59" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.5000740885734558</v>
       </c>
       <c r="W59" t="n">
-        <v>0.06811399012804031</v>
+        <v>0.01090296544134617</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.4056699275970459</v>
       </c>
       <c r="V60" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.4732159972190857</v>
       </c>
       <c r="W60" t="n">
-        <v>0.0009210609714500606</v>
+        <v>0.004562471527606249</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.4059398174285889</v>
       </c>
       <c r="V61" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.5729953050613403</v>
       </c>
       <c r="W61" t="n">
-        <v>0.0009044042672030628</v>
+        <v>0.02790753543376923</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>1.02625584602356</v>
       </c>
       <c r="V62" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.4855991005897522</v>
       </c>
       <c r="W62" t="n">
-        <v>0.04417314380407333</v>
+        <v>0.2923097312450409</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.9517920017242432</v>
       </c>
       <c r="V63" t="n">
-        <v>0.812067985534668</v>
+        <v>0.5272846817970276</v>
       </c>
       <c r="W63" t="n">
-        <v>0.01952280104160309</v>
+        <v>0.1802064627408981</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.9051640033721924</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.5060862898826599</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2143270224332809</v>
+        <v>0.159263014793396</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>1.003021001815796</v>
       </c>
       <c r="V65" t="n">
-        <v>0.56818687915802</v>
+        <v>0.9042755961418152</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1890807151794434</v>
+        <v>0.009750654920935631</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.9027309417724609</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.4682047963142395</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1229696050286293</v>
+        <v>0.1888129711151123</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8939568996429443</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.5540992617607117</v>
       </c>
       <c r="W67" t="n">
-        <v>0.2097055017948151</v>
+        <v>0.1155032142996788</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8873119354248047</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.8848679065704346</v>
       </c>
       <c r="W68" t="n">
-        <v>0.07982432097196579</v>
+        <v>5.973276984150289e-06</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8788712024688721</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.4686807990074158</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1088351309299469</v>
+        <v>0.1682561635971069</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8773040771484375</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.4846782088279724</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1760728657245636</v>
+        <v>0.1541550755500793</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8974218368530273</v>
       </c>
       <c r="V71" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.4870525002479553</v>
       </c>
       <c r="W71" t="n">
-        <v>0.0205998383462429</v>
+        <v>0.1684029996395111</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8843009471893311</v>
       </c>
       <c r="V72" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.5095360279083252</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1449817270040512</v>
+        <v>0.1404487490653992</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8786149024963379</v>
       </c>
       <c r="V73" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.469694972038269</v>
       </c>
       <c r="W73" t="n">
-        <v>0.142322301864624</v>
+        <v>0.1672155112028122</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.9318070411682129</v>
       </c>
       <c r="V74" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.5329893827438354</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1299924701452255</v>
+        <v>0.1590555310249329</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8818371295928955</v>
       </c>
       <c r="V75" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.4815373420715332</v>
       </c>
       <c r="W75" t="n">
-        <v>0.06645769625902176</v>
+        <v>0.1602399200201035</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8789389133453369</v>
       </c>
       <c r="V76" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.5088385343551636</v>
       </c>
       <c r="W76" t="n">
-        <v>0.04768330603837967</v>
+        <v>0.1369742900133133</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.9003469944000244</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.5895202159881592</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1826730668544769</v>
+        <v>0.09661328792572021</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.9369490146636963</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.9575608372688293</v>
       </c>
       <c r="W78" t="n">
-        <v>0.09553539007902145</v>
+        <v>0.0004248472396284342</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8839180469512939</v>
       </c>
       <c r="V79" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.5738659501075745</v>
       </c>
       <c r="W79" t="n">
-        <v>0.09922345727682114</v>
+        <v>0.0961323007941246</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8740348815917969</v>
       </c>
       <c r="V80" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.4807194471359253</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1629177927970886</v>
+        <v>0.1546970307826996</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.878889799118042</v>
       </c>
       <c r="V81" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.5737548470497131</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1631955206394196</v>
+        <v>0.09310733526945114</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.6107220649719238</v>
       </c>
       <c r="V82" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.5738123059272766</v>
       </c>
       <c r="W82" t="n">
-        <v>0.0002838700893335044</v>
+        <v>0.00136233028024435</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5351009368896484</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.4941498637199402</v>
       </c>
       <c r="W83" t="n">
-        <v>0.004715790506452322</v>
+        <v>0.001676990417763591</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5319771766662598</v>
       </c>
       <c r="V84" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.4982942342758179</v>
       </c>
       <c r="W84" t="n">
-        <v>0.008796775713562965</v>
+        <v>0.001134540652856231</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5300149917602539</v>
       </c>
       <c r="V85" t="n">
-        <v>0.569115161895752</v>
+        <v>0.5499956607818604</v>
       </c>
       <c r="W85" t="n">
-        <v>0.001528823282569647</v>
+        <v>0.0003992271376773715</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5222859382629395</v>
       </c>
       <c r="V86" t="n">
-        <v>0.618610143661499</v>
+        <v>0.878748893737793</v>
       </c>
       <c r="W86" t="n">
-        <v>0.009278352372348309</v>
+        <v>0.1270658373832703</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5271379947662354</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.4927318692207336</v>
       </c>
       <c r="W87" t="n">
-        <v>0.001655225409194827</v>
+        <v>0.001183781423605978</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5315499305725098</v>
       </c>
       <c r="V88" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.4689025282859802</v>
       </c>
       <c r="W88" t="n">
-        <v>0.02346168458461761</v>
+        <v>0.003924697171896696</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5334780216217041</v>
       </c>
       <c r="V89" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.9645747542381287</v>
       </c>
       <c r="W89" t="n">
-        <v>0.02299228496849537</v>
+        <v>0.1858443915843964</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5340180397033691</v>
       </c>
       <c r="V90" t="n">
-        <v>0.474732518196106</v>
+        <v>0.4786097407341003</v>
       </c>
       <c r="W90" t="n">
-        <v>0.003514772979542613</v>
+        <v>0.003070079488679767</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.531419038772583</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.9928539991378784</v>
       </c>
       <c r="W91" t="n">
-        <v>0.008550445549190044</v>
+        <v>0.212922215461731</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5320870876312256</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.9029316306114197</v>
       </c>
       <c r="W92" t="n">
-        <v>0.0006465679034590721</v>
+        <v>0.1375256776809692</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.535567045211792</v>
       </c>
       <c r="V93" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.5507546067237854</v>
       </c>
       <c r="W93" t="n">
-        <v>0.04448432102799416</v>
+        <v>0.000230662029935047</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5251190662384033</v>
       </c>
       <c r="V94" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.5131296515464783</v>
       </c>
       <c r="W94" t="n">
-        <v>0.01735601760447025</v>
+        <v>0.0001437460596207529</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5292398929595947</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.4857550263404846</v>
       </c>
       <c r="W95" t="n">
-        <v>0.007605038117617369</v>
+        <v>0.001890933606773615</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5305531024932861</v>
       </c>
       <c r="V96" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.8762524724006653</v>
       </c>
       <c r="W96" t="n">
-        <v>0.01625881902873516</v>
+        <v>0.1195080578327179</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5304639339447021</v>
       </c>
       <c r="V97" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.9405930638313293</v>
       </c>
       <c r="W97" t="n">
-        <v>0.04048988595604897</v>
+        <v>0.1682059019804001</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5783541202545166</v>
       </c>
       <c r="V98" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.4860067367553711</v>
       </c>
       <c r="W98" t="n">
-        <v>0.002166128950193524</v>
+        <v>0.008528038859367371</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5288350582122803</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.4945062398910522</v>
       </c>
       <c r="W99" t="n">
-        <v>0.0004334584227763116</v>
+        <v>0.00117846776265651</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5300018787384033</v>
       </c>
       <c r="V100" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.8755991458892822</v>
       </c>
       <c r="W100" t="n">
-        <v>0.008023626171052456</v>
+        <v>0.1194374710321426</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5334467887878418</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.4787538051605225</v>
       </c>
       <c r="W101" t="n">
-        <v>0.000468978745630011</v>
+        <v>0.002991322427988052</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4135949611663818</v>
       </c>
       <c r="V102" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.4839752316474915</v>
       </c>
       <c r="W102" t="n">
-        <v>0.001115966122597456</v>
+        <v>0.004953382536768913</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4203581809997559</v>
       </c>
       <c r="V103" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.4814611673355103</v>
       </c>
       <c r="W103" t="n">
-        <v>0.05602020025253296</v>
+        <v>0.003733574878424406</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4076690673828125</v>
       </c>
       <c r="V104" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.8816360831260681</v>
       </c>
       <c r="W104" t="n">
-        <v>0.005433901213109493</v>
+        <v>0.224644735455513</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4117300510406494</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.961142361164093</v>
       </c>
       <c r="W105" t="n">
-        <v>0.02692651748657227</v>
+        <v>0.3018538951873779</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3982830047607422</v>
       </c>
       <c r="V106" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.4808487892150879</v>
       </c>
       <c r="W106" t="n">
-        <v>0.0239891204982996</v>
+        <v>0.006817108951508999</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3995699882507324</v>
       </c>
       <c r="V107" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.5360901951789856</v>
       </c>
       <c r="W107" t="n">
-        <v>0.06827779859304428</v>
+        <v>0.01863776706159115</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3960738182067871</v>
       </c>
       <c r="V108" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.9926561713218689</v>
       </c>
       <c r="W108" t="n">
-        <v>0.0002913023345172405</v>
+        <v>0.3559105098247528</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.4147820472717285</v>
       </c>
       <c r="V109" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.8934614062309265</v>
       </c>
       <c r="W109" t="n">
-        <v>0.05871658399701118</v>
+        <v>0.2291339337825775</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3983039855957031</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.5067058205604553</v>
       </c>
       <c r="W110" t="n">
-        <v>0.004633804317563772</v>
+        <v>0.01175095792859793</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.4013969898223877</v>
       </c>
       <c r="V111" t="n">
-        <v>0.471180647611618</v>
+        <v>0.4696314930915833</v>
       </c>
       <c r="W111" t="n">
-        <v>0.004869759082794189</v>
+        <v>0.00465594744309783</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4056260585784912</v>
       </c>
       <c r="V112" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.5095359086990356</v>
       </c>
       <c r="W112" t="n">
-        <v>0.02302656881511211</v>
+        <v>0.01079725660383701</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3991959095001221</v>
       </c>
       <c r="V113" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.8818023800849915</v>
       </c>
       <c r="W113" t="n">
-        <v>0.03151895105838776</v>
+        <v>0.2329090088605881</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.401115894317627</v>
       </c>
       <c r="V114" t="n">
-        <v>0.458252340555191</v>
+        <v>0.5037000179290771</v>
       </c>
       <c r="W114" t="n">
-        <v>0.003264573402702808</v>
+        <v>0.01052350271493196</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3997581005096436</v>
       </c>
       <c r="V115" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.5306618213653564</v>
       </c>
       <c r="W115" t="n">
-        <v>0.028213020414114</v>
+        <v>0.01713578402996063</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.4026870727539062</v>
       </c>
       <c r="V116" t="n">
-        <v>0.561543881893158</v>
+        <v>0.4808635115623474</v>
       </c>
       <c r="W116" t="n">
-        <v>0.02523548528552055</v>
+        <v>0.006111555732786655</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.4104290008544922</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.52705317735672</v>
       </c>
       <c r="W117" t="n">
-        <v>0.004063127562403679</v>
+        <v>0.01360119879245758</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4057800769805908</v>
       </c>
       <c r="V118" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.5112181305885315</v>
       </c>
       <c r="W118" t="n">
-        <v>0.009208623319864273</v>
+        <v>0.01111718360334635</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3966670036315918</v>
       </c>
       <c r="V119" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.5887359380722046</v>
       </c>
       <c r="W119" t="n">
-        <v>0.1726379096508026</v>
+        <v>0.03689047694206238</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4050350189208984</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.9243239760398865</v>
       </c>
       <c r="W120" t="n">
-        <v>0.02145575173199177</v>
+        <v>0.269661009311676</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.4038529396057129</v>
       </c>
       <c r="V121" t="n">
-        <v>0.551414966583252</v>
+        <v>0.8935229778289795</v>
       </c>
       <c r="W121" t="n">
-        <v>0.02177455089986324</v>
+        <v>0.2397767454385757</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8896141052246094</v>
       </c>
       <c r="V122" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.4718031287193298</v>
       </c>
       <c r="W122" t="n">
-        <v>0.06062093749642372</v>
+        <v>0.1745660156011581</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.906566858291626</v>
       </c>
       <c r="V123" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.530514121055603</v>
       </c>
       <c r="W123" t="n">
-        <v>0.2661851644515991</v>
+        <v>0.1414156556129456</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8737847805023193</v>
       </c>
       <c r="V124" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.9342705607414246</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1033131629228592</v>
+        <v>0.003658529603853822</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.9282269477844238</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.5396410226821899</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1071403995156288</v>
+        <v>0.1509990245103836</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8831160068511963</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.9003090262413025</v>
       </c>
       <c r="W126" t="n">
-        <v>0.09613706916570663</v>
+        <v>0.0002955999225378036</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.9013409614562988</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.9452013373374939</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1579240709543228</v>
+        <v>0.001923732575960457</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8755838871002197</v>
       </c>
       <c r="V128" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.500048041343689</v>
       </c>
       <c r="W128" t="n">
-        <v>0.06699244678020477</v>
+        <v>0.1410271674394608</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.9365639686584473</v>
       </c>
       <c r="V129" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.5027092695236206</v>
       </c>
       <c r="W129" t="n">
-        <v>0.07729864865541458</v>
+        <v>0.1882299035787582</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9395790100097656</v>
       </c>
       <c r="V130" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.5131257772445679</v>
       </c>
       <c r="W130" t="n">
-        <v>0.08754043281078339</v>
+        <v>0.1818623542785645</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8820738792419434</v>
       </c>
       <c r="V131" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.5062004327774048</v>
       </c>
       <c r="W131" t="n">
-        <v>0.07033047825098038</v>
+        <v>0.1412808448076248</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8853549957275391</v>
       </c>
       <c r="V132" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.517714262008667</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1686459481716156</v>
+        <v>0.1351597160100937</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9771230220794678</v>
       </c>
       <c r="V133" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.9161915183067322</v>
       </c>
       <c r="W133" t="n">
-        <v>0.3583099246025085</v>
+        <v>0.003712648060172796</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.9092328548431396</v>
       </c>
       <c r="V134" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.8713465929031372</v>
       </c>
       <c r="W134" t="n">
-        <v>0.2241847962141037</v>
+        <v>0.001435368787497282</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8951380252838135</v>
       </c>
       <c r="V135" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.5007396936416626</v>
       </c>
       <c r="W135" t="n">
-        <v>0.006185784470289946</v>
+        <v>0.1555500477552414</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8852920532226562</v>
       </c>
       <c r="V136" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.5505258440971375</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1821749955415726</v>
+        <v>0.1120684146881104</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.9334981441497803</v>
       </c>
       <c r="V137" t="n">
-        <v>0.473088413476944</v>
+        <v>0.471710205078125</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2119771242141724</v>
+        <v>0.2132481038570404</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8817300796508789</v>
       </c>
       <c r="V138" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.4941742420196533</v>
       </c>
       <c r="W138" t="n">
-        <v>0.06635251641273499</v>
+        <v>0.1501995325088501</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.877946138381958</v>
       </c>
       <c r="V139" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.4783952832221985</v>
       </c>
       <c r="W139" t="n">
-        <v>0.1756535470485687</v>
+        <v>0.1596408784389496</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8788509368896484</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.5145741701126099</v>
       </c>
       <c r="W140" t="n">
-        <v>0.04228313639760017</v>
+        <v>0.1326975673437119</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8856711387634277</v>
       </c>
       <c r="V141" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.5742778778076172</v>
       </c>
       <c r="W141" t="n">
-        <v>0.05859971046447754</v>
+        <v>0.09696575999259949</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.539654016494751</v>
       </c>
       <c r="V142" t="n">
-        <v>0.505409836769104</v>
+        <v>0.9226247668266296</v>
       </c>
       <c r="W142" t="n">
-        <v>0.001172663876786828</v>
+        <v>0.1466666013002396</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5301709175109863</v>
       </c>
       <c r="V143" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.5684207081794739</v>
       </c>
       <c r="W143" t="n">
-        <v>0.01290653459727764</v>
+        <v>0.001463046530261636</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.533066987991333</v>
       </c>
       <c r="V144" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.5094470381736755</v>
       </c>
       <c r="W144" t="n">
-        <v>0.006084652151912451</v>
+        <v>0.0005579020362347364</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5278267860412598</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.5039759278297424</v>
       </c>
       <c r="W145" t="n">
-        <v>0.004809253383427858</v>
+        <v>0.0005688634118996561</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.530515193939209</v>
       </c>
       <c r="V146" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.5305082201957703</v>
       </c>
       <c r="W146" t="n">
-        <v>0.01356522832065821</v>
+        <v>4.863309754910006e-11</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5385630130767822</v>
       </c>
       <c r="V147" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.9130216240882874</v>
       </c>
       <c r="W147" t="n">
-        <v>0.08098021149635315</v>
+        <v>0.1402192562818527</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5337851047515869</v>
       </c>
       <c r="V148" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.9389140605926514</v>
       </c>
       <c r="W148" t="n">
-        <v>0.01208285707980394</v>
+        <v>0.1641294658184052</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5306360721588135</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.9398706555366516</v>
       </c>
       <c r="W149" t="n">
-        <v>0.0005153852398507297</v>
+        <v>0.1674729436635971</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.529973030090332</v>
       </c>
       <c r="V150" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.4693470001220703</v>
       </c>
       <c r="W150" t="n">
-        <v>0.008911728858947754</v>
+        <v>0.003675515530630946</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.55051589012146</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.9382597208023071</v>
       </c>
       <c r="W151" t="n">
-        <v>0.01310798805207014</v>
+        <v>0.1503452807664871</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5510158538818359</v>
       </c>
       <c r="V152" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.515947699546814</v>
       </c>
       <c r="W152" t="n">
-        <v>0.01878147013485432</v>
+        <v>0.001229775487445295</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5294108390808105</v>
       </c>
       <c r="V153" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.5534308552742004</v>
       </c>
       <c r="W153" t="n">
-        <v>0.03820515424013138</v>
+        <v>0.0005769612034782767</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5271210670471191</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.8935503363609314</v>
       </c>
       <c r="W154" t="n">
-        <v>0.003180586965754628</v>
+        <v>0.1342704147100449</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5299139022827148</v>
       </c>
       <c r="V155" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.4717446565628052</v>
       </c>
       <c r="W155" t="n">
-        <v>0.0005177966668270528</v>
+        <v>0.003383661154657602</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.583341121673584</v>
       </c>
       <c r="V156" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.8837651610374451</v>
       </c>
       <c r="W156" t="n">
-        <v>0.001113812671974301</v>
+        <v>0.09025460481643677</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.532667875289917</v>
       </c>
       <c r="V157" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.5374835729598999</v>
       </c>
       <c r="W157" t="n">
-        <v>0.00564127741381526</v>
+        <v>2.319094346603379e-05</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5350229740142822</v>
       </c>
       <c r="V158" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.5368427038192749</v>
       </c>
       <c r="W158" t="n">
-        <v>0.007459672633558512</v>
+        <v>3.311416548967827e-06</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5340468883514404</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.4989715218544006</v>
       </c>
       <c r="W159" t="n">
-        <v>0.0007547970162704587</v>
+        <v>0.001230281312018633</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5316998958587646</v>
       </c>
       <c r="V160" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.5000041127204895</v>
       </c>
       <c r="W160" t="n">
-        <v>0.02005048841238022</v>
+        <v>0.001004622667096555</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5935299396514893</v>
       </c>
       <c r="V161" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.4984073042869568</v>
       </c>
       <c r="W161" t="n">
-        <v>0.0006381866405718029</v>
+        <v>0.009048315696418285</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.4093868732452393</v>
       </c>
       <c r="V162" t="n">
-        <v>0.551807165145874</v>
+        <v>0.9569164514541626</v>
       </c>
       <c r="W162" t="n">
-        <v>0.0202835388481617</v>
+        <v>0.2997886538505554</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.4065051078796387</v>
       </c>
       <c r="V163" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.5150134563446045</v>
       </c>
       <c r="W163" t="n">
-        <v>0.002709692111238837</v>
+        <v>0.01177406124770641</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3991808891296387</v>
       </c>
       <c r="V164" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.4786412715911865</v>
       </c>
       <c r="W164" t="n">
-        <v>0.05069450289011002</v>
+        <v>0.006313952151685953</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.4052278995513916</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.9381123185157776</v>
       </c>
       <c r="W165" t="n">
-        <v>0.02200301922857761</v>
+        <v>0.2839657962322235</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.4011631011962891</v>
       </c>
       <c r="V166" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.5096662640571594</v>
       </c>
       <c r="W166" t="n">
-        <v>0.002988324034959078</v>
+        <v>0.01177293621003628</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.4490811824798584</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.530512273311615</v>
       </c>
       <c r="W167" t="n">
-        <v>0.03421712666749954</v>
+        <v>0.006631022784858942</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.4015998840332031</v>
       </c>
       <c r="V168" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.9117431640625</v>
       </c>
       <c r="W168" t="n">
-        <v>0.04754398390650749</v>
+        <v>0.2602461576461792</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.4047849178314209</v>
       </c>
       <c r="V169" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.5121755003929138</v>
       </c>
       <c r="W169" t="n">
-        <v>0.1102618500590324</v>
+        <v>0.01153273694217205</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.4026010036468506</v>
       </c>
       <c r="V170" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.5735438466072083</v>
       </c>
       <c r="W170" t="n">
-        <v>0.008761870674788952</v>
+        <v>0.02922145463526249</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.401104211807251</v>
       </c>
       <c r="V171" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.550736665725708</v>
       </c>
       <c r="W171" t="n">
-        <v>0.00530323525890708</v>
+        <v>0.02238987199962139</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4033920764923096</v>
       </c>
       <c r="V172" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.5340887904167175</v>
       </c>
       <c r="W172" t="n">
-        <v>0.04948719218373299</v>
+        <v>0.01708163134753704</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.4314339160919189</v>
       </c>
       <c r="V173" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.8934177756309509</v>
       </c>
       <c r="W173" t="n">
-        <v>0.005312124267220497</v>
+        <v>0.2134290933609009</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4098010063171387</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.9592032432556152</v>
       </c>
       <c r="W174" t="n">
-        <v>0.0006658686324954033</v>
+        <v>0.3018428087234497</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.4046478271484375</v>
       </c>
       <c r="V175" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.4819104075431824</v>
       </c>
       <c r="W175" t="n">
-        <v>0.0007192199118435383</v>
+        <v>0.005969506222754717</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.4040770530700684</v>
       </c>
       <c r="V176" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.9217888116836548</v>
       </c>
       <c r="W176" t="n">
-        <v>0.06197183206677437</v>
+        <v>0.2680254578590393</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4129810333251953</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.4993449449539185</v>
       </c>
       <c r="W177" t="n">
-        <v>0.001783607876859605</v>
+        <v>0.00745872501283884</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4443020820617676</v>
       </c>
       <c r="V178" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.9536213278770447</v>
       </c>
       <c r="W178" t="n">
-        <v>0.1397787928581238</v>
+        <v>0.2594060897827148</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.4889922142028809</v>
       </c>
       <c r="V179" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.9731069207191467</v>
       </c>
       <c r="W179" t="n">
-        <v>0.0009671973530203104</v>
+        <v>0.2343670427799225</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4019980430603027</v>
       </c>
       <c r="V180" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.4691210389137268</v>
       </c>
       <c r="W180" t="n">
-        <v>0.07996496558189392</v>
+        <v>0.004505496472120285</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4092979431152344</v>
       </c>
       <c r="V181" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.5330669283866882</v>
       </c>
       <c r="W181" t="n">
-        <v>0.0007143160910345614</v>
+        <v>0.01531876157969236</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.891876220703125</v>
       </c>
       <c r="V182" t="n">
-        <v>0.480756551027298</v>
+        <v>0.4786344170570374</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1690193861722946</v>
+        <v>0.1707687824964523</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8808250427246094</v>
       </c>
       <c r="V183" t="n">
-        <v>0.43533855676651</v>
+        <v>0.5307563543319702</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1984582096338272</v>
+        <v>0.1225480884313583</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.913067102432251</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.5280671119689941</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1717429608106613</v>
+        <v>0.1482249945402145</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8929059505462646</v>
       </c>
       <c r="V185" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.5308116674423218</v>
       </c>
       <c r="W185" t="n">
-        <v>0.07148256897926331</v>
+        <v>0.1311122626066208</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.9277229309082031</v>
       </c>
       <c r="V186" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.5066050291061401</v>
       </c>
       <c r="W186" t="n">
-        <v>0.2417802810668945</v>
+        <v>0.1773402839899063</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.9063000679016113</v>
       </c>
       <c r="V187" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.4961302280426025</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1288002729415894</v>
+        <v>0.1682392954826355</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8852560520172119</v>
       </c>
       <c r="V188" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.468322217464447</v>
       </c>
       <c r="W188" t="n">
-        <v>0.004692941904067993</v>
+        <v>0.173833817243576</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8886961936950684</v>
       </c>
       <c r="V189" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.8750184178352356</v>
       </c>
       <c r="W189" t="n">
-        <v>0.05375907942652702</v>
+        <v>0.0001870815467555076</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8827528953552246</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.9814329147338867</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1119377985596657</v>
+        <v>0.009737745858728886</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.9401040077209473</v>
       </c>
       <c r="V191" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.4693165421485901</v>
       </c>
       <c r="W191" t="n">
-        <v>0.3025068938732147</v>
+        <v>0.2216408401727676</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8825490474700928</v>
       </c>
       <c r="V192" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.521121621131897</v>
       </c>
       <c r="W192" t="n">
-        <v>0.05017406865954399</v>
+        <v>0.1306297779083252</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8858850002288818</v>
       </c>
       <c r="V193" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.4690923690795898</v>
       </c>
       <c r="W193" t="n">
-        <v>0.2573966085910797</v>
+        <v>0.1737160980701447</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8831770420074463</v>
       </c>
       <c r="V194" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.4785085916519165</v>
       </c>
       <c r="W194" t="n">
-        <v>0.2003065794706345</v>
+        <v>0.1637565493583679</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.9418988227844238</v>
       </c>
       <c r="V195" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.5012476444244385</v>
       </c>
       <c r="W195" t="n">
-        <v>0.04331402853131294</v>
+        <v>0.1941734552383423</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8837671279907227</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.4685280919075012</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1705753356218338</v>
+        <v>0.1724234521389008</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8807148933410645</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.8922591805458069</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1063541099429131</v>
+        <v>0.0001332705724053085</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8814489841461182</v>
       </c>
       <c r="V198" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.5566064715385437</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1790686100721359</v>
+        <v>0.1055226549506187</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.9411418437957764</v>
       </c>
       <c r="V199" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.9571011066436768</v>
       </c>
       <c r="W199" t="n">
-        <v>0.242478534579277</v>
+        <v>0.0002546980686020106</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8811769485473633</v>
       </c>
       <c r="V200" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.9819665551185608</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1723699271678925</v>
+        <v>0.01015854440629482</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8956382274627686</v>
       </c>
       <c r="V201" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.5142462253570557</v>
       </c>
       <c r="W201" t="n">
-        <v>0.02661740221083164</v>
+        <v>0.1454598605632782</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5340750217437744</v>
       </c>
       <c r="V202" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.8706396818161011</v>
       </c>
       <c r="W202" t="n">
-        <v>0.009613282047212124</v>
+        <v>0.1132757738232613</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5280799865722656</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.8707050681114197</v>
       </c>
       <c r="W203" t="n">
-        <v>0.00487353652715683</v>
+        <v>0.1173919439315796</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.55855393409729</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.5480157136917114</v>
       </c>
       <c r="W204" t="n">
-        <v>0.01495943311601877</v>
+        <v>0.0001110540906665847</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5331411361694336</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.935222327709198</v>
       </c>
       <c r="W205" t="n">
-        <v>0.007378329988569021</v>
+        <v>0.1616692841053009</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5327358245849609</v>
       </c>
       <c r="V206" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.46806800365448</v>
       </c>
       <c r="W206" t="n">
-        <v>0.007846122607588768</v>
+        <v>0.004181927070021629</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5310330390930176</v>
       </c>
       <c r="V207" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.4694725275039673</v>
       </c>
       <c r="W207" t="n">
-        <v>0.009026081301271915</v>
+        <v>0.003789696609601378</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5280430316925049</v>
       </c>
       <c r="V208" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.554137647151947</v>
       </c>
       <c r="W208" t="n">
-        <v>2.018596023845021e-05</v>
+        <v>0.0006809289334341884</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5312619209289551</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.8933924436569214</v>
       </c>
       <c r="W209" t="n">
-        <v>0.009135185740888119</v>
+        <v>0.1311385184526443</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5441038608551025</v>
       </c>
       <c r="V210" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.5331613421440125</v>
       </c>
       <c r="W210" t="n">
-        <v>0.00539396982640028</v>
+        <v>0.0001197387173306197</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5353600978851318</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.5307344198226929</v>
       </c>
       <c r="W211" t="n">
-        <v>0.006396531127393246</v>
+        <v>2.139689786417875e-05</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5355451107025146</v>
       </c>
       <c r="V212" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.5742675065994263</v>
       </c>
       <c r="W212" t="n">
-        <v>0.00486043794080615</v>
+        <v>0.001499423990026116</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.532059907913208</v>
       </c>
       <c r="V213" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.8846527934074402</v>
       </c>
       <c r="W213" t="n">
-        <v>0.0156237781047821</v>
+        <v>0.1243217438459396</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5883300304412842</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.9521749019622803</v>
       </c>
       <c r="W214" t="n">
-        <v>0.01809352077543736</v>
+        <v>0.1323830932378769</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5338649749755859</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.5260000824928284</v>
       </c>
       <c r="W215" t="n">
-        <v>0.004584803245961666</v>
+        <v>6.185653182910755e-05</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5369060039520264</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.9043176174163818</v>
       </c>
       <c r="W216" t="n">
-        <v>0.006264225579798222</v>
+        <v>0.1349912881851196</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5312070846557617</v>
       </c>
       <c r="V217" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.8939333558082581</v>
       </c>
       <c r="W217" t="n">
-        <v>0.005414134357124567</v>
+        <v>0.1315703541040421</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5312271118164062</v>
       </c>
       <c r="V218" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.5727947950363159</v>
       </c>
       <c r="W218" t="n">
-        <v>0.01229271292686462</v>
+        <v>0.001727872295305133</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5899190902709961</v>
       </c>
       <c r="V219" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.4994474053382874</v>
       </c>
       <c r="W219" t="n">
-        <v>0.001269581029191613</v>
+        <v>0.008185125887393951</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5367641448974609</v>
       </c>
       <c r="V220" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.9390096068382263</v>
       </c>
       <c r="W220" t="n">
-        <v>0.0101487785577774</v>
+        <v>0.1618014127016068</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5353620052337646</v>
       </c>
       <c r="V221" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.5307320356369019</v>
       </c>
       <c r="W221" t="n">
-        <v>0.02449778467416763</v>
+        <v>2.143661913578399e-05</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3991918563842773</v>
       </c>
       <c r="V222" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.4731202125549316</v>
       </c>
       <c r="W222" t="n">
-        <v>0.1703419983386993</v>
+        <v>0.005465401802212</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3988630771636963</v>
       </c>
       <c r="V223" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.5105082988739014</v>
       </c>
       <c r="W223" t="n">
-        <v>0.08420883864164352</v>
+        <v>0.01246465556323528</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.4080910682678223</v>
       </c>
       <c r="V224" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.5033277273178101</v>
       </c>
       <c r="W224" t="n">
-        <v>0.02667893469333649</v>
+        <v>0.009070021100342274</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.4009909629821777</v>
       </c>
       <c r="V225" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.8709172010421753</v>
       </c>
       <c r="W225" t="n">
-        <v>0.01004045736044645</v>
+        <v>0.2208306640386581</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.4052519798278809</v>
       </c>
       <c r="V226" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.4966267347335815</v>
       </c>
       <c r="W226" t="n">
-        <v>0.04842104762792587</v>
+        <v>0.008349345996975899</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.4094200134277344</v>
       </c>
       <c r="V227" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.4717629551887512</v>
       </c>
       <c r="W227" t="n">
-        <v>0.0253846850246191</v>
+        <v>0.003886642400175333</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4066460132598877</v>
       </c>
       <c r="V228" t="n">
-        <v>0.436014860868454</v>
+        <v>0.5541052222251892</v>
       </c>
       <c r="W228" t="n">
-        <v>0.000862529210280627</v>
+        <v>0.02174421772360802</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4332959651947021</v>
       </c>
       <c r="V229" t="n">
-        <v>0.476378470659256</v>
+        <v>0.5150453448295593</v>
       </c>
       <c r="W229" t="n">
-        <v>0.001856102258898318</v>
+        <v>0.006682961247861385</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.4015820026397705</v>
       </c>
       <c r="V230" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.4846125245094299</v>
       </c>
       <c r="W230" t="n">
-        <v>0.0039579295553267</v>
+        <v>0.006894067395478487</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.4050970077514648</v>
       </c>
       <c r="V231" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.8816924095153809</v>
       </c>
       <c r="W231" t="n">
-        <v>0.04670146852731705</v>
+        <v>0.227143183350563</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4173200130462646</v>
       </c>
       <c r="V232" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.4950651526451111</v>
       </c>
       <c r="W232" t="n">
-        <v>0.0003349738835822791</v>
+        <v>0.006044306792318821</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4144260883331299</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.871482789516449</v>
       </c>
       <c r="W233" t="n">
-        <v>0.008074876852333546</v>
+        <v>0.2089008241891861</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.4076559543609619</v>
       </c>
       <c r="V234" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.9376820921897888</v>
       </c>
       <c r="W234" t="n">
-        <v>0.1726545542478561</v>
+        <v>0.2809277176856995</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4050118923187256</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.8891740441322327</v>
       </c>
       <c r="W235" t="n">
-        <v>0.02387756481766701</v>
+        <v>0.2344129830598831</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4071331024169922</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.4730781316757202</v>
       </c>
       <c r="W236" t="n">
-        <v>0.00481733400374651</v>
+        <v>0.004348746966570616</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4058289527893066</v>
       </c>
       <c r="V237" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.474403977394104</v>
       </c>
       <c r="W237" t="n">
-        <v>0.009237587451934814</v>
+        <v>0.004702534060925245</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.4014730453491211</v>
       </c>
       <c r="V238" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.8815765976905823</v>
       </c>
       <c r="W238" t="n">
-        <v>0.007368487771600485</v>
+        <v>0.2304994165897369</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.4043900966644287</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.4990211129188538</v>
       </c>
       <c r="W239" t="n">
-        <v>0.0009835786186158657</v>
+        <v>0.008955028839409351</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3961811065673828</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.5304461121559143</v>
       </c>
       <c r="W240" t="n">
-        <v>0.003378015477210283</v>
+        <v>0.01802709139883518</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4033911228179932</v>
       </c>
       <c r="V241" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.5306912660598755</v>
       </c>
       <c r="W241" t="n">
-        <v>0.1725476831197739</v>
+        <v>0.0162053257226944</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9586129188537598</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.531950831413269</v>
       </c>
       <c r="W242" t="n">
-        <v>0.2504231333732605</v>
+        <v>0.1820405423641205</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9021270275115967</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.9857549071311951</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1816183924674988</v>
+        <v>0.006993622053414583</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8979690074920654</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.4903644323348999</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1551958322525024</v>
+        <v>0.1661414951086044</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8967618942260742</v>
       </c>
       <c r="V245" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.4645662307739258</v>
       </c>
       <c r="W245" t="n">
-        <v>0.07453596591949463</v>
+        <v>0.1867930889129639</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9445419311523438</v>
       </c>
       <c r="V246" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.4731907248497009</v>
       </c>
       <c r="W246" t="n">
-        <v>0.1521198004484177</v>
+        <v>0.2221719622612</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8941390514373779</v>
       </c>
       <c r="V247" t="n">
-        <v>0.390147477388382</v>
+        <v>0.8697633147239685</v>
       </c>
       <c r="W247" t="n">
-        <v>0.2540075480937958</v>
+        <v>0.0005941765266470611</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8910861015319824</v>
       </c>
       <c r="V248" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.5305671691894531</v>
       </c>
       <c r="W248" t="n">
-        <v>0.07103680074214935</v>
+        <v>0.129973903298378</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.9741928577423096</v>
       </c>
       <c r="V249" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.8781753778457642</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1247503757476807</v>
+        <v>0.009219356812536716</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8945090770721436</v>
       </c>
       <c r="V250" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.5076837539672852</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1909633278846741</v>
+        <v>0.1496338248252869</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.9051511287689209</v>
       </c>
       <c r="V251" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.5736494660377502</v>
       </c>
       <c r="W251" t="n">
-        <v>0.03239350020885468</v>
+        <v>0.1098933517932892</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8906478881835938</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.4878755807876587</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1138003244996071</v>
+        <v>0.162225529551506</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.905116081237793</v>
       </c>
       <c r="V253" t="n">
-        <v>0.56879723072052</v>
+        <v>0.4809407591819763</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1131103709340096</v>
+        <v>0.1799246966838837</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8896300792694092</v>
       </c>
       <c r="V254" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.533119797706604</v>
       </c>
       <c r="W254" t="n">
-        <v>0.07348883152008057</v>
+        <v>0.1270995736122131</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8911221027374268</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.8695459365844727</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1876469850540161</v>
+        <v>0.000465530960354954</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8896300792694092</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.882470428943634</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1866929233074188</v>
+        <v>5.12605911353603e-05</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.9598829746246338</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.8850899338722229</v>
       </c>
       <c r="W257" t="n">
-        <v>0.2744280397891998</v>
+        <v>0.005593998823314905</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8842358589172363</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.8836522102355957</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1854535192251205</v>
+        <v>3.406457835808396e-07</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8970301151275635</v>
       </c>
       <c r="V259" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.8910737633705139</v>
       </c>
       <c r="W259" t="n">
-        <v>0.268485814332962</v>
+        <v>3.547812593751587e-05</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8835229873657227</v>
       </c>
       <c r="V260" t="n">
-        <v>0.624285101890564</v>
+        <v>0.5026440620422363</v>
       </c>
       <c r="W260" t="n">
-        <v>0.06720428168773651</v>
+        <v>0.1450687497854233</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.9493281841278076</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.9461762309074402</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1941412091255188</v>
+        <v>9.934808986145072e-06</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5532999038696289</v>
       </c>
       <c r="V262" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.8958514332771301</v>
       </c>
       <c r="W262" t="n">
-        <v>6.083327264150284e-08</v>
+        <v>0.117341548204422</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5493950843811035</v>
       </c>
       <c r="V263" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.9250792264938354</v>
       </c>
       <c r="W263" t="n">
-        <v>0.002267346251755953</v>
+        <v>0.141138568520546</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5352129936218262</v>
       </c>
       <c r="V264" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.9482187628746033</v>
       </c>
       <c r="W264" t="n">
-        <v>0.009894100949168205</v>
+        <v>0.1705737709999084</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5383920669555664</v>
       </c>
       <c r="V265" t="n">
-        <v>0.630542516708374</v>
+        <v>0.9346689581871033</v>
       </c>
       <c r="W265" t="n">
-        <v>0.008491705171763897</v>
+        <v>0.1570353806018829</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5986061096191406</v>
       </c>
       <c r="V266" t="n">
-        <v>0.504918098449707</v>
+        <v>0.5251220464706421</v>
       </c>
       <c r="W266" t="n">
-        <v>0.008777443319559097</v>
+        <v>0.005399907473474741</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5483062267303467</v>
       </c>
       <c r="V267" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.9174850583076477</v>
       </c>
       <c r="W267" t="n">
-        <v>1.219321529788431e-05</v>
+        <v>0.1362930089235306</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5410749912261963</v>
       </c>
       <c r="V268" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.4691711068153381</v>
       </c>
       <c r="W268" t="n">
-        <v>0.006797423120588064</v>
+        <v>0.005170168820768595</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5398709774017334</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.5330235362052917</v>
       </c>
       <c r="W269" t="n">
-        <v>0.005699774716049433</v>
+        <v>4.688744957093149e-05</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5443179607391357</v>
       </c>
       <c r="V270" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.4899892210960388</v>
       </c>
       <c r="W270" t="n">
-        <v>0.01165242400020361</v>
+        <v>0.002951611997559667</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5771389007568359</v>
       </c>
       <c r="V271" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.5307459831237793</v>
       </c>
       <c r="W271" t="n">
-        <v>0.005132906604558229</v>
+        <v>0.002152302768081427</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.6685018539428711</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.9107304215431213</v>
       </c>
       <c r="W272" t="n">
-        <v>0.04098353162407875</v>
+        <v>0.05867467820644379</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5557429790496826</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.4695851802825928</v>
       </c>
       <c r="W273" t="n">
-        <v>0.0001862948411144316</v>
+        <v>0.007423166185617447</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5827388763427734</v>
       </c>
       <c r="V274" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.5019695162773132</v>
       </c>
       <c r="W274" t="n">
-        <v>0.05568758770823479</v>
+        <v>0.006523689720779657</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5357298851013184</v>
       </c>
       <c r="V275" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.5305876135826111</v>
       </c>
       <c r="W275" t="n">
-        <v>0.04111281782388687</v>
+        <v>2.644295636855531e-05</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5934269428253174</v>
       </c>
       <c r="V276" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.5121309161186218</v>
       </c>
       <c r="W276" t="n">
-        <v>0.005983984563499689</v>
+        <v>0.006609044037759304</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5378849506378174</v>
       </c>
       <c r="V277" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.5307019948959351</v>
       </c>
       <c r="W277" t="n">
-        <v>0.04380710422992706</v>
+        <v>5.159485226613469e-05</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5386619567871094</v>
       </c>
       <c r="V278" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.5329464077949524</v>
       </c>
       <c r="W278" t="n">
-        <v>0.003958135843276978</v>
+        <v>3.266749990871176e-05</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.563715934753418</v>
       </c>
       <c r="V279" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.4962089657783508</v>
       </c>
       <c r="W279" t="n">
-        <v>0.06401999294757843</v>
+        <v>0.004557190928608179</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5350220203399658</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.5734683871269226</v>
       </c>
       <c r="W280" t="n">
-        <v>0.001694959122687578</v>
+        <v>0.001478123129345477</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5406160354614258</v>
       </c>
       <c r="V281" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.5317511558532715</v>
       </c>
       <c r="W281" t="n">
-        <v>0.03730703145265579</v>
+        <v>7.85860902396962e-05</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4551918506622314</v>
       </c>
       <c r="V282" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.5745163559913635</v>
       </c>
       <c r="W282" t="n">
-        <v>5.976919510430889e-06</v>
+        <v>0.01423833798617125</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.5286839008331299</v>
       </c>
       <c r="V283" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.5348712205886841</v>
       </c>
       <c r="W283" t="n">
-        <v>0.004167623817920685</v>
+        <v>3.828292756224982e-05</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4146311283111572</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.5306909680366516</v>
       </c>
       <c r="W284" t="n">
-        <v>0.001516909571364522</v>
+        <v>0.0134698860347271</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4117069244384766</v>
       </c>
       <c r="V285" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.4907947182655334</v>
       </c>
       <c r="W285" t="n">
-        <v>0.045768853276968</v>
+        <v>0.006254879292100668</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.418874979019165</v>
       </c>
       <c r="V286" t="n">
-        <v>0.436027318239212</v>
+        <v>0.4693876504898071</v>
       </c>
       <c r="W286" t="n">
-        <v>0.0002942027349490672</v>
+        <v>0.00255153002217412</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4625599384307861</v>
       </c>
       <c r="V287" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.9230332970619202</v>
       </c>
       <c r="W287" t="n">
-        <v>0.001087839249521494</v>
+        <v>0.2120357155799866</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4124529361724854</v>
       </c>
       <c r="V288" t="n">
-        <v>0.624763011932373</v>
+        <v>0.941655158996582</v>
       </c>
       <c r="W288" t="n">
-        <v>0.04507556930184364</v>
+        <v>0.2800549864768982</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4440610408782959</v>
       </c>
       <c r="V289" t="n">
-        <v>0.475897878408432</v>
+        <v>0.9200577735900879</v>
       </c>
       <c r="W289" t="n">
-        <v>0.001013584202155471</v>
+        <v>0.2265728861093521</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.4064319133758545</v>
       </c>
       <c r="V290" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.5254299640655518</v>
       </c>
       <c r="W290" t="n">
-        <v>0.1681463122367859</v>
+        <v>0.01416053622961044</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4111340045928955</v>
       </c>
       <c r="V291" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.539278507232666</v>
       </c>
       <c r="W291" t="n">
-        <v>0.01976640708744526</v>
+        <v>0.01642101444303989</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4108929634094238</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.4685114026069641</v>
       </c>
       <c r="W292" t="n">
-        <v>0.0006315904902294278</v>
+        <v>0.003319884650409222</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4676790237426758</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.4803493618965149</v>
       </c>
       <c r="W293" t="n">
-        <v>0.001330843311734498</v>
+        <v>0.0001605374709470198</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4270689487457275</v>
       </c>
       <c r="V294" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.5745270252227783</v>
       </c>
       <c r="W294" t="n">
-        <v>0.03898327052593231</v>
+        <v>0.0217438843101263</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.4076859951019287</v>
       </c>
       <c r="V295" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.9862698912620544</v>
       </c>
       <c r="W295" t="n">
-        <v>0.001192579162307084</v>
+        <v>0.3347593247890472</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4094829559326172</v>
       </c>
       <c r="V296" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.8930370211601257</v>
       </c>
       <c r="W296" t="n">
-        <v>0.04683815687894821</v>
+        <v>0.2338245362043381</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.426353931427002</v>
       </c>
       <c r="V297" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.8802606463432312</v>
       </c>
       <c r="W297" t="n">
-        <v>0.02241809852421284</v>
+        <v>0.2060313075780869</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4103739261627197</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.8816941380500793</v>
       </c>
       <c r="W298" t="n">
-        <v>0.003635377390310168</v>
+        <v>0.2221427410840988</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4647040367126465</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.4807179570198059</v>
       </c>
       <c r="W299" t="n">
-        <v>0.0008225559140555561</v>
+        <v>0.0002564456372056156</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4139828681945801</v>
       </c>
       <c r="V300" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.9112699627876282</v>
       </c>
       <c r="W300" t="n">
-        <v>0.02395589835941792</v>
+        <v>0.2472944557666779</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4141430854797363</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.4691798090934753</v>
       </c>
       <c r="W301" t="n">
-        <v>0.003487313631922007</v>
+        <v>0.003029040992259979</v>
       </c>
     </row>
     <row r="302" spans="1:23">
